--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value138.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value138.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9307627311562748</v>
+        <v>1.437127351760864</v>
       </c>
       <c r="B1">
-        <v>1.786872742152333</v>
+        <v>2.402667760848999</v>
       </c>
       <c r="C1">
-        <v>3.279677492894536</v>
+        <v>4.650745391845703</v>
       </c>
       <c r="D1">
-        <v>2.554735214554001</v>
+        <v>1.317078471183777</v>
       </c>
       <c r="E1">
-        <v>1.036141136414483</v>
+        <v>0.5113233327865601</v>
       </c>
     </row>
   </sheetData>
